--- a/Assignment3(Python_Project)/data/expense.xlsx
+++ b/Assignment3(Python_Project)/data/expense.xlsx
@@ -6886,16 +6886,16 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>Rent</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t xml:space="preserve">DIS </t>
+          <t>test</t>
         </is>
       </c>
       <c r="E269" t="n">
-        <v>-2000</v>
+        <v>-1</v>
       </c>
       <c r="F269" t="n">
         <v>279</v>

--- a/Assignment3(Python_Project)/data/expense.xlsx
+++ b/Assignment3(Python_Project)/data/expense.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F269"/>
+  <dimension ref="A1:F270"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6901,6 +6901,30 @@
         <v>279</v>
       </c>
     </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>269</v>
+      </c>
+      <c r="B270" s="2" t="n">
+        <v>45819</v>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>Food</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
+      </c>
+      <c r="E270" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F270" t="n">
+        <v>280</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Assignment3(Python_Project)/data/expense.xlsx
+++ b/Assignment3(Python_Project)/data/expense.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaqu\DIS\Github\python-project\Assignment3(Python_Project)\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91248123-C9F6-46DE-9F69-8437433D2528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED1C4C72-6841-4951-9BE2-BC6895E646DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,7 +85,7 @@
     <t>Phone bill</t>
   </si>
   <si>
-    <t>a</t>
+    <t>date</t>
   </si>
 </sst>
 </file>
@@ -116,9 +116,9 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -195,10 +195,10 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -506,8 +506,8 @@
   </sheetPr>
   <dimension ref="A1:F268"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A252" workbookViewId="0">
-      <selection activeCell="H259" sqref="H259"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -524,7 +524,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -544,7 +544,7 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="6">
         <v>45658</v>
       </c>
       <c r="C2" t="s">
@@ -564,7 +564,7 @@
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="6">
         <v>45658</v>
       </c>
       <c r="C3" t="s">
@@ -584,7 +584,7 @@
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>45658</v>
       </c>
       <c r="C4" t="s">
@@ -604,7 +604,7 @@
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>45658</v>
       </c>
       <c r="C5" t="s">
@@ -624,7 +624,7 @@
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>45659</v>
       </c>
       <c r="C6" t="s">
@@ -644,7 +644,7 @@
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <v>45660</v>
       </c>
       <c r="C7" t="s">
@@ -664,7 +664,7 @@
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <v>45660</v>
       </c>
       <c r="C8" t="s">
@@ -684,7 +684,7 @@
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <v>45660</v>
       </c>
       <c r="C9" t="s">
@@ -704,7 +704,7 @@
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="6">
         <v>45661</v>
       </c>
       <c r="C10" t="s">
@@ -724,7 +724,7 @@
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="6">
         <v>45662</v>
       </c>
       <c r="C11" t="s">
@@ -744,7 +744,7 @@
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="6">
         <v>45662</v>
       </c>
       <c r="C12" t="s">
@@ -764,7 +764,7 @@
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="6">
         <v>45663</v>
       </c>
       <c r="C13" t="s">
@@ -784,7 +784,7 @@
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="6">
         <v>45663</v>
       </c>
       <c r="C14" t="s">
@@ -804,7 +804,7 @@
       <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="6">
         <v>45664</v>
       </c>
       <c r="C15" t="s">
@@ -824,7 +824,7 @@
       <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="6">
         <v>45665</v>
       </c>
       <c r="C16" t="s">
@@ -844,7 +844,7 @@
       <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="6">
         <v>45665</v>
       </c>
       <c r="C17" t="s">
@@ -864,7 +864,7 @@
       <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="6">
         <v>45665</v>
       </c>
       <c r="C18" t="s">
@@ -884,7 +884,7 @@
       <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="6">
         <v>45666</v>
       </c>
       <c r="C19" t="s">
@@ -904,7 +904,7 @@
       <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="6">
         <v>45666</v>
       </c>
       <c r="C20" t="s">
@@ -924,7 +924,7 @@
       <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="6">
         <v>45667</v>
       </c>
       <c r="C21" t="s">
@@ -944,7 +944,7 @@
       <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="6">
         <v>45667</v>
       </c>
       <c r="C22" t="s">
@@ -964,7 +964,7 @@
       <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="6">
         <v>45668</v>
       </c>
       <c r="C23" t="s">
@@ -984,7 +984,7 @@
       <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="6">
         <v>45669</v>
       </c>
       <c r="C24" t="s">
@@ -1004,7 +1004,7 @@
       <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="6">
         <v>45669</v>
       </c>
       <c r="C25" t="s">
@@ -1024,7 +1024,7 @@
       <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="6">
         <v>45669</v>
       </c>
       <c r="C26" t="s">
@@ -1044,7 +1044,7 @@
       <c r="A27" s="3">
         <v>26</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="6">
         <v>45670</v>
       </c>
       <c r="C27" t="s">
@@ -1064,7 +1064,7 @@
       <c r="A28" s="3">
         <v>27</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="6">
         <v>45672</v>
       </c>
       <c r="C28" t="s">
@@ -1084,7 +1084,7 @@
       <c r="A29" s="3">
         <v>28</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="6">
         <v>45672</v>
       </c>
       <c r="C29" t="s">
@@ -1104,7 +1104,7 @@
       <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30" s="6">
         <v>45672</v>
       </c>
       <c r="C30" t="s">
@@ -1124,7 +1124,7 @@
       <c r="A31" s="3">
         <v>30</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="6">
         <v>45672</v>
       </c>
       <c r="C31" t="s">
@@ -1144,7 +1144,7 @@
       <c r="A32" s="3">
         <v>31</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="6">
         <v>45674</v>
       </c>
       <c r="C32" t="s">
@@ -1164,7 +1164,7 @@
       <c r="A33" s="3">
         <v>32</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33" s="6">
         <v>45674</v>
       </c>
       <c r="C33" t="s">
@@ -1184,7 +1184,7 @@
       <c r="A34" s="3">
         <v>33</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B34" s="6">
         <v>45675</v>
       </c>
       <c r="C34" t="s">
@@ -1204,7 +1204,7 @@
       <c r="A35" s="3">
         <v>34</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B35" s="6">
         <v>45675</v>
       </c>
       <c r="C35" t="s">
@@ -1224,7 +1224,7 @@
       <c r="A36" s="3">
         <v>35</v>
       </c>
-      <c r="B36" s="7">
+      <c r="B36" s="6">
         <v>45675</v>
       </c>
       <c r="C36" t="s">
@@ -1244,7 +1244,7 @@
       <c r="A37" s="3">
         <v>36</v>
       </c>
-      <c r="B37" s="7">
+      <c r="B37" s="6">
         <v>45675</v>
       </c>
       <c r="C37" t="s">
@@ -1264,7 +1264,7 @@
       <c r="A38" s="3">
         <v>37</v>
       </c>
-      <c r="B38" s="7">
+      <c r="B38" s="6">
         <v>45676</v>
       </c>
       <c r="C38" t="s">
@@ -1284,7 +1284,7 @@
       <c r="A39" s="3">
         <v>38</v>
       </c>
-      <c r="B39" s="7">
+      <c r="B39" s="6">
         <v>45676</v>
       </c>
       <c r="C39" t="s">
@@ -1304,7 +1304,7 @@
       <c r="A40" s="3">
         <v>39</v>
       </c>
-      <c r="B40" s="7">
+      <c r="B40" s="6">
         <v>45676</v>
       </c>
       <c r="C40" t="s">
@@ -1324,7 +1324,7 @@
       <c r="A41" s="3">
         <v>40</v>
       </c>
-      <c r="B41" s="7">
+      <c r="B41" s="6">
         <v>45676</v>
       </c>
       <c r="C41" t="s">
@@ -1344,7 +1344,7 @@
       <c r="A42" s="3">
         <v>41</v>
       </c>
-      <c r="B42" s="7">
+      <c r="B42" s="6">
         <v>45677</v>
       </c>
       <c r="C42" t="s">
@@ -1364,7 +1364,7 @@
       <c r="A43" s="3">
         <v>42</v>
       </c>
-      <c r="B43" s="7">
+      <c r="B43" s="6">
         <v>45677</v>
       </c>
       <c r="C43" t="s">
@@ -1384,7 +1384,7 @@
       <c r="A44" s="3">
         <v>43</v>
       </c>
-      <c r="B44" s="7">
+      <c r="B44" s="6">
         <v>45678</v>
       </c>
       <c r="C44" t="s">
@@ -1404,7 +1404,7 @@
       <c r="A45" s="3">
         <v>44</v>
       </c>
-      <c r="B45" s="7">
+      <c r="B45" s="6">
         <v>45678</v>
       </c>
       <c r="C45" t="s">
@@ -1424,7 +1424,7 @@
       <c r="A46" s="3">
         <v>45</v>
       </c>
-      <c r="B46" s="7">
+      <c r="B46" s="6">
         <v>45679</v>
       </c>
       <c r="C46" t="s">
@@ -1444,7 +1444,7 @@
       <c r="A47" s="3">
         <v>46</v>
       </c>
-      <c r="B47" s="7">
+      <c r="B47" s="6">
         <v>45679</v>
       </c>
       <c r="C47" t="s">
@@ -1464,7 +1464,7 @@
       <c r="A48" s="3">
         <v>47</v>
       </c>
-      <c r="B48" s="7">
+      <c r="B48" s="6">
         <v>45681</v>
       </c>
       <c r="C48" t="s">
@@ -1484,7 +1484,7 @@
       <c r="A49" s="3">
         <v>48</v>
       </c>
-      <c r="B49" s="7">
+      <c r="B49" s="6">
         <v>45681</v>
       </c>
       <c r="C49" t="s">
@@ -1504,7 +1504,7 @@
       <c r="A50" s="3">
         <v>49</v>
       </c>
-      <c r="B50" s="7">
+      <c r="B50" s="6">
         <v>45681</v>
       </c>
       <c r="C50" t="s">
@@ -1524,7 +1524,7 @@
       <c r="A51" s="3">
         <v>50</v>
       </c>
-      <c r="B51" s="7">
+      <c r="B51" s="6">
         <v>45682</v>
       </c>
       <c r="C51" t="s">
@@ -1544,7 +1544,7 @@
       <c r="A52" s="3">
         <v>51</v>
       </c>
-      <c r="B52" s="7">
+      <c r="B52" s="6">
         <v>45682</v>
       </c>
       <c r="C52" t="s">
@@ -1564,7 +1564,7 @@
       <c r="A53" s="3">
         <v>52</v>
       </c>
-      <c r="B53" s="7">
+      <c r="B53" s="6">
         <v>45682</v>
       </c>
       <c r="C53" t="s">
@@ -1584,7 +1584,7 @@
       <c r="A54" s="3">
         <v>53</v>
       </c>
-      <c r="B54" s="7">
+      <c r="B54" s="6">
         <v>45683</v>
       </c>
       <c r="C54" t="s">
@@ -1604,7 +1604,7 @@
       <c r="A55" s="3">
         <v>54</v>
       </c>
-      <c r="B55" s="7">
+      <c r="B55" s="6">
         <v>45683</v>
       </c>
       <c r="C55" t="s">
@@ -1624,7 +1624,7 @@
       <c r="A56" s="3">
         <v>55</v>
       </c>
-      <c r="B56" s="7">
+      <c r="B56" s="6">
         <v>45683</v>
       </c>
       <c r="C56" t="s">
@@ -1644,7 +1644,7 @@
       <c r="A57" s="3">
         <v>56</v>
       </c>
-      <c r="B57" s="7">
+      <c r="B57" s="6">
         <v>45684</v>
       </c>
       <c r="C57" t="s">
@@ -1664,7 +1664,7 @@
       <c r="A58" s="3">
         <v>57</v>
       </c>
-      <c r="B58" s="7">
+      <c r="B58" s="6">
         <v>45684</v>
       </c>
       <c r="C58" t="s">
@@ -1684,7 +1684,7 @@
       <c r="A59" s="3">
         <v>58</v>
       </c>
-      <c r="B59" s="7">
+      <c r="B59" s="6">
         <v>45684</v>
       </c>
       <c r="C59" t="s">
@@ -1704,7 +1704,7 @@
       <c r="A60" s="3">
         <v>59</v>
       </c>
-      <c r="B60" s="7">
+      <c r="B60" s="6">
         <v>45685</v>
       </c>
       <c r="C60" t="s">
@@ -1724,7 +1724,7 @@
       <c r="A61" s="3">
         <v>60</v>
       </c>
-      <c r="B61" s="7">
+      <c r="B61" s="6">
         <v>45685</v>
       </c>
       <c r="C61" t="s">
@@ -1744,7 +1744,7 @@
       <c r="A62" s="3">
         <v>61</v>
       </c>
-      <c r="B62" s="7">
+      <c r="B62" s="6">
         <v>45685</v>
       </c>
       <c r="C62" t="s">
@@ -1764,7 +1764,7 @@
       <c r="A63" s="3">
         <v>62</v>
       </c>
-      <c r="B63" s="7">
+      <c r="B63" s="6">
         <v>45686</v>
       </c>
       <c r="C63" t="s">
@@ -1784,7 +1784,7 @@
       <c r="A64" s="3">
         <v>63</v>
       </c>
-      <c r="B64" s="7">
+      <c r="B64" s="6">
         <v>45686</v>
       </c>
       <c r="C64" t="s">
@@ -1804,7 +1804,7 @@
       <c r="A65" s="3">
         <v>64</v>
       </c>
-      <c r="B65" s="7">
+      <c r="B65" s="6">
         <v>45686</v>
       </c>
       <c r="C65" t="s">
@@ -1824,7 +1824,7 @@
       <c r="A66" s="3">
         <v>65</v>
       </c>
-      <c r="B66" s="7">
+      <c r="B66" s="6">
         <v>45687</v>
       </c>
       <c r="C66" t="s">
@@ -1844,7 +1844,7 @@
       <c r="A67" s="3">
         <v>66</v>
       </c>
-      <c r="B67" s="7">
+      <c r="B67" s="6">
         <v>45688</v>
       </c>
       <c r="C67" t="s">
@@ -1864,7 +1864,7 @@
       <c r="A68" s="3">
         <v>67</v>
       </c>
-      <c r="B68" s="7">
+      <c r="B68" s="6">
         <v>45688</v>
       </c>
       <c r="C68" t="s">
@@ -1884,7 +1884,7 @@
       <c r="A69" s="3">
         <v>68</v>
       </c>
-      <c r="B69" s="7">
+      <c r="B69" s="6">
         <v>45688</v>
       </c>
       <c r="C69" t="s">
@@ -1904,7 +1904,7 @@
       <c r="A70" s="3">
         <v>69</v>
       </c>
-      <c r="B70" s="7">
+      <c r="B70" s="6">
         <v>45688</v>
       </c>
       <c r="C70" t="s">
@@ -1924,7 +1924,7 @@
       <c r="A71" s="3">
         <v>70</v>
       </c>
-      <c r="B71" s="7">
+      <c r="B71" s="6">
         <v>45688</v>
       </c>
       <c r="C71" t="s">
@@ -1944,7 +1944,7 @@
       <c r="A72" s="3">
         <v>71</v>
       </c>
-      <c r="B72" s="7">
+      <c r="B72" s="6">
         <v>45688</v>
       </c>
       <c r="C72" t="s">
@@ -1964,7 +1964,7 @@
       <c r="A73" s="3">
         <v>72</v>
       </c>
-      <c r="B73" s="7">
+      <c r="B73" s="6">
         <v>45689</v>
       </c>
       <c r="C73" t="s">
@@ -1984,7 +1984,7 @@
       <c r="A74" s="3">
         <v>73</v>
       </c>
-      <c r="B74" s="7">
+      <c r="B74" s="6">
         <v>45689</v>
       </c>
       <c r="C74" t="s">
@@ -2004,7 +2004,7 @@
       <c r="A75" s="3">
         <v>74</v>
       </c>
-      <c r="B75" s="7">
+      <c r="B75" s="6">
         <v>45689</v>
       </c>
       <c r="C75" t="s">
@@ -2024,7 +2024,7 @@
       <c r="A76" s="3">
         <v>75</v>
       </c>
-      <c r="B76" s="7">
+      <c r="B76" s="6">
         <v>45691</v>
       </c>
       <c r="C76" t="s">
@@ -2044,7 +2044,7 @@
       <c r="A77" s="3">
         <v>76</v>
       </c>
-      <c r="B77" s="7">
+      <c r="B77" s="6">
         <v>45691</v>
       </c>
       <c r="C77" t="s">
@@ -2064,7 +2064,7 @@
       <c r="A78" s="3">
         <v>77</v>
       </c>
-      <c r="B78" s="7">
+      <c r="B78" s="6">
         <v>45692</v>
       </c>
       <c r="C78" t="s">
@@ -2084,7 +2084,7 @@
       <c r="A79" s="3">
         <v>78</v>
       </c>
-      <c r="B79" s="7">
+      <c r="B79" s="6">
         <v>45692</v>
       </c>
       <c r="C79" t="s">
@@ -2104,7 +2104,7 @@
       <c r="A80" s="3">
         <v>79</v>
       </c>
-      <c r="B80" s="7">
+      <c r="B80" s="6">
         <v>45693</v>
       </c>
       <c r="C80" t="s">
@@ -2124,7 +2124,7 @@
       <c r="A81" s="3">
         <v>80</v>
       </c>
-      <c r="B81" s="7">
+      <c r="B81" s="6">
         <v>45693</v>
       </c>
       <c r="C81" t="s">
@@ -2144,7 +2144,7 @@
       <c r="A82" s="3">
         <v>81</v>
       </c>
-      <c r="B82" s="7">
+      <c r="B82" s="6">
         <v>45694</v>
       </c>
       <c r="C82" t="s">
@@ -2164,7 +2164,7 @@
       <c r="A83" s="3">
         <v>82</v>
       </c>
-      <c r="B83" s="7">
+      <c r="B83" s="6">
         <v>45694</v>
       </c>
       <c r="C83" t="s">
@@ -2184,7 +2184,7 @@
       <c r="A84" s="3">
         <v>83</v>
       </c>
-      <c r="B84" s="7">
+      <c r="B84" s="6">
         <v>45695</v>
       </c>
       <c r="C84" t="s">
@@ -2204,7 +2204,7 @@
       <c r="A85" s="3">
         <v>84</v>
       </c>
-      <c r="B85" s="7">
+      <c r="B85" s="6">
         <v>45696</v>
       </c>
       <c r="C85" t="s">
@@ -2224,7 +2224,7 @@
       <c r="A86" s="3">
         <v>85</v>
       </c>
-      <c r="B86" s="7">
+      <c r="B86" s="6">
         <v>45696</v>
       </c>
       <c r="C86" t="s">
@@ -2244,7 +2244,7 @@
       <c r="A87" s="3">
         <v>86</v>
       </c>
-      <c r="B87" s="7">
+      <c r="B87" s="6">
         <v>45697</v>
       </c>
       <c r="C87" t="s">
@@ -2264,7 +2264,7 @@
       <c r="A88" s="3">
         <v>87</v>
       </c>
-      <c r="B88" s="7">
+      <c r="B88" s="6">
         <v>45697</v>
       </c>
       <c r="C88" t="s">
@@ -2284,7 +2284,7 @@
       <c r="A89" s="3">
         <v>88</v>
       </c>
-      <c r="B89" s="7">
+      <c r="B89" s="6">
         <v>45697</v>
       </c>
       <c r="C89" t="s">
@@ -2304,7 +2304,7 @@
       <c r="A90" s="3">
         <v>89</v>
       </c>
-      <c r="B90" s="7">
+      <c r="B90" s="6">
         <v>45698</v>
       </c>
       <c r="C90" t="s">
@@ -2324,7 +2324,7 @@
       <c r="A91" s="3">
         <v>90</v>
       </c>
-      <c r="B91" s="7">
+      <c r="B91" s="6">
         <v>45698</v>
       </c>
       <c r="C91" t="s">
@@ -2344,7 +2344,7 @@
       <c r="A92" s="3">
         <v>91</v>
       </c>
-      <c r="B92" s="7">
+      <c r="B92" s="6">
         <v>45698</v>
       </c>
       <c r="C92" t="s">
@@ -2364,7 +2364,7 @@
       <c r="A93" s="3">
         <v>92</v>
       </c>
-      <c r="B93" s="7">
+      <c r="B93" s="6">
         <v>45699</v>
       </c>
       <c r="C93" t="s">
@@ -2384,7 +2384,7 @@
       <c r="A94" s="3">
         <v>93</v>
       </c>
-      <c r="B94" s="7">
+      <c r="B94" s="6">
         <v>45699</v>
       </c>
       <c r="C94" t="s">
@@ -2404,7 +2404,7 @@
       <c r="A95" s="3">
         <v>94</v>
       </c>
-      <c r="B95" s="7">
+      <c r="B95" s="6">
         <v>45701</v>
       </c>
       <c r="C95" t="s">
@@ -2424,7 +2424,7 @@
       <c r="A96" s="3">
         <v>95</v>
       </c>
-      <c r="B96" s="7">
+      <c r="B96" s="6">
         <v>45701</v>
       </c>
       <c r="C96" t="s">
@@ -2444,7 +2444,7 @@
       <c r="A97" s="3">
         <v>96</v>
       </c>
-      <c r="B97" s="7">
+      <c r="B97" s="6">
         <v>45703</v>
       </c>
       <c r="C97" t="s">
@@ -2464,7 +2464,7 @@
       <c r="A98" s="3">
         <v>97</v>
       </c>
-      <c r="B98" s="7">
+      <c r="B98" s="6">
         <v>45703</v>
       </c>
       <c r="C98" t="s">
@@ -2484,7 +2484,7 @@
       <c r="A99" s="3">
         <v>98</v>
       </c>
-      <c r="B99" s="7">
+      <c r="B99" s="6">
         <v>45703</v>
       </c>
       <c r="C99" t="s">
@@ -2504,7 +2504,7 @@
       <c r="A100" s="3">
         <v>99</v>
       </c>
-      <c r="B100" s="7">
+      <c r="B100" s="6">
         <v>45703</v>
       </c>
       <c r="C100" t="s">
@@ -2524,7 +2524,7 @@
       <c r="A101" s="3">
         <v>100</v>
       </c>
-      <c r="B101" s="7">
+      <c r="B101" s="6">
         <v>45704</v>
       </c>
       <c r="C101" t="s">
@@ -2544,7 +2544,7 @@
       <c r="A102" s="3">
         <v>101</v>
       </c>
-      <c r="B102" s="7">
+      <c r="B102" s="6">
         <v>45705</v>
       </c>
       <c r="C102" t="s">
@@ -2564,7 +2564,7 @@
       <c r="A103" s="3">
         <v>102</v>
       </c>
-      <c r="B103" s="7">
+      <c r="B103" s="6">
         <v>45705</v>
       </c>
       <c r="C103" t="s">
@@ -2584,7 +2584,7 @@
       <c r="A104" s="3">
         <v>103</v>
       </c>
-      <c r="B104" s="7">
+      <c r="B104" s="6">
         <v>45706</v>
       </c>
       <c r="C104" t="s">
@@ -2604,7 +2604,7 @@
       <c r="A105" s="3">
         <v>104</v>
       </c>
-      <c r="B105" s="7">
+      <c r="B105" s="6">
         <v>45706</v>
       </c>
       <c r="C105" t="s">
@@ -2624,7 +2624,7 @@
       <c r="A106" s="3">
         <v>105</v>
       </c>
-      <c r="B106" s="7">
+      <c r="B106" s="6">
         <v>45706</v>
       </c>
       <c r="C106" t="s">
@@ -2644,7 +2644,7 @@
       <c r="A107" s="3">
         <v>106</v>
       </c>
-      <c r="B107" s="7">
+      <c r="B107" s="6">
         <v>45707</v>
       </c>
       <c r="C107" t="s">
@@ -2664,7 +2664,7 @@
       <c r="A108" s="3">
         <v>107</v>
       </c>
-      <c r="B108" s="7">
+      <c r="B108" s="6">
         <v>45708</v>
       </c>
       <c r="C108" t="s">
@@ -2684,7 +2684,7 @@
       <c r="A109" s="3">
         <v>108</v>
       </c>
-      <c r="B109" s="7">
+      <c r="B109" s="6">
         <v>45709</v>
       </c>
       <c r="C109" t="s">
@@ -2704,7 +2704,7 @@
       <c r="A110" s="3">
         <v>109</v>
       </c>
-      <c r="B110" s="7">
+      <c r="B110" s="6">
         <v>45709</v>
       </c>
       <c r="C110" t="s">
@@ -2724,7 +2724,7 @@
       <c r="A111" s="3">
         <v>110</v>
       </c>
-      <c r="B111" s="7">
+      <c r="B111" s="6">
         <v>45710</v>
       </c>
       <c r="C111" t="s">
@@ -2744,7 +2744,7 @@
       <c r="A112" s="3">
         <v>111</v>
       </c>
-      <c r="B112" s="7">
+      <c r="B112" s="6">
         <v>45710</v>
       </c>
       <c r="C112" t="s">
@@ -2764,7 +2764,7 @@
       <c r="A113" s="3">
         <v>112</v>
       </c>
-      <c r="B113" s="7">
+      <c r="B113" s="6">
         <v>45710</v>
       </c>
       <c r="C113" t="s">
@@ -2784,7 +2784,7 @@
       <c r="A114" s="3">
         <v>113</v>
       </c>
-      <c r="B114" s="7">
+      <c r="B114" s="6">
         <v>45711</v>
       </c>
       <c r="C114" t="s">
@@ -2804,7 +2804,7 @@
       <c r="A115" s="3">
         <v>114</v>
       </c>
-      <c r="B115" s="7">
+      <c r="B115" s="6">
         <v>45711</v>
       </c>
       <c r="C115" t="s">
@@ -2824,7 +2824,7 @@
       <c r="A116" s="3">
         <v>115</v>
       </c>
-      <c r="B116" s="7">
+      <c r="B116" s="6">
         <v>45711</v>
       </c>
       <c r="C116" t="s">
@@ -2844,7 +2844,7 @@
       <c r="A117" s="3">
         <v>116</v>
       </c>
-      <c r="B117" s="7">
+      <c r="B117" s="6">
         <v>45712</v>
       </c>
       <c r="C117" t="s">
@@ -2864,7 +2864,7 @@
       <c r="A118" s="3">
         <v>117</v>
       </c>
-      <c r="B118" s="7">
+      <c r="B118" s="6">
         <v>45712</v>
       </c>
       <c r="C118" t="s">
@@ -2884,7 +2884,7 @@
       <c r="A119" s="3">
         <v>118</v>
       </c>
-      <c r="B119" s="7">
+      <c r="B119" s="6">
         <v>45713</v>
       </c>
       <c r="C119" t="s">
@@ -2904,7 +2904,7 @@
       <c r="A120" s="3">
         <v>119</v>
       </c>
-      <c r="B120" s="7">
+      <c r="B120" s="6">
         <v>45714</v>
       </c>
       <c r="C120" t="s">
@@ -2924,7 +2924,7 @@
       <c r="A121" s="3">
         <v>120</v>
       </c>
-      <c r="B121" s="7">
+      <c r="B121" s="6">
         <v>45714</v>
       </c>
       <c r="C121" t="s">
@@ -2944,7 +2944,7 @@
       <c r="A122" s="3">
         <v>121</v>
       </c>
-      <c r="B122" s="7">
+      <c r="B122" s="6">
         <v>45716</v>
       </c>
       <c r="C122" t="s">
@@ -2964,7 +2964,7 @@
       <c r="A123" s="3">
         <v>122</v>
       </c>
-      <c r="B123" s="7">
+      <c r="B123" s="6">
         <v>45716</v>
       </c>
       <c r="C123" t="s">
@@ -2984,7 +2984,7 @@
       <c r="A124" s="3">
         <v>123</v>
       </c>
-      <c r="B124" s="7">
+      <c r="B124" s="6">
         <v>45716</v>
       </c>
       <c r="C124" t="s">
@@ -3004,7 +3004,7 @@
       <c r="A125" s="3">
         <v>124</v>
       </c>
-      <c r="B125" s="7">
+      <c r="B125" s="6">
         <v>45716</v>
       </c>
       <c r="C125" t="s">
@@ -3024,7 +3024,7 @@
       <c r="A126" s="3">
         <v>125</v>
       </c>
-      <c r="B126" s="7">
+      <c r="B126" s="6">
         <v>45716</v>
       </c>
       <c r="C126" t="s">
@@ -3044,7 +3044,7 @@
       <c r="A127" s="3">
         <v>126</v>
       </c>
-      <c r="B127" s="7">
+      <c r="B127" s="6">
         <v>45716</v>
       </c>
       <c r="C127" t="s">
@@ -3064,7 +3064,7 @@
       <c r="A128" s="3">
         <v>127</v>
       </c>
-      <c r="B128" s="7">
+      <c r="B128" s="6">
         <v>45716</v>
       </c>
       <c r="C128" t="s">
@@ -3084,7 +3084,7 @@
       <c r="A129" s="3">
         <v>128</v>
       </c>
-      <c r="B129" s="7">
+      <c r="B129" s="6">
         <v>45716</v>
       </c>
       <c r="C129" t="s">
@@ -3104,7 +3104,7 @@
       <c r="A130" s="3">
         <v>129</v>
       </c>
-      <c r="B130" s="7">
+      <c r="B130" s="6">
         <v>45717</v>
       </c>
       <c r="C130" t="s">
@@ -3124,7 +3124,7 @@
       <c r="A131" s="3">
         <v>130</v>
       </c>
-      <c r="B131" s="7">
+      <c r="B131" s="6">
         <v>45717</v>
       </c>
       <c r="C131" t="s">
@@ -3144,7 +3144,7 @@
       <c r="A132" s="3">
         <v>131</v>
       </c>
-      <c r="B132" s="7">
+      <c r="B132" s="6">
         <v>45718</v>
       </c>
       <c r="C132" t="s">
@@ -3164,7 +3164,7 @@
       <c r="A133" s="3">
         <v>132</v>
       </c>
-      <c r="B133" s="7">
+      <c r="B133" s="6">
         <v>45719</v>
       </c>
       <c r="C133" t="s">
@@ -3184,7 +3184,7 @@
       <c r="A134" s="3">
         <v>133</v>
       </c>
-      <c r="B134" s="7">
+      <c r="B134" s="6">
         <v>45719</v>
       </c>
       <c r="C134" t="s">
@@ -3204,7 +3204,7 @@
       <c r="A135" s="3">
         <v>134</v>
       </c>
-      <c r="B135" s="7">
+      <c r="B135" s="6">
         <v>45719</v>
       </c>
       <c r="C135" t="s">
@@ -3224,7 +3224,7 @@
       <c r="A136" s="3">
         <v>135</v>
       </c>
-      <c r="B136" s="7">
+      <c r="B136" s="6">
         <v>45720</v>
       </c>
       <c r="C136" t="s">
@@ -3244,7 +3244,7 @@
       <c r="A137" s="3">
         <v>136</v>
       </c>
-      <c r="B137" s="7">
+      <c r="B137" s="6">
         <v>45720</v>
       </c>
       <c r="C137" t="s">
@@ -3264,7 +3264,7 @@
       <c r="A138" s="3">
         <v>137</v>
       </c>
-      <c r="B138" s="7">
+      <c r="B138" s="6">
         <v>45720</v>
       </c>
       <c r="C138" t="s">
@@ -3284,7 +3284,7 @@
       <c r="A139" s="3">
         <v>138</v>
       </c>
-      <c r="B139" s="7">
+      <c r="B139" s="6">
         <v>45720</v>
       </c>
       <c r="C139" t="s">
@@ -3304,7 +3304,7 @@
       <c r="A140" s="3">
         <v>139</v>
       </c>
-      <c r="B140" s="7">
+      <c r="B140" s="6">
         <v>45721</v>
       </c>
       <c r="C140" t="s">
@@ -3324,7 +3324,7 @@
       <c r="A141" s="3">
         <v>140</v>
       </c>
-      <c r="B141" s="7">
+      <c r="B141" s="6">
         <v>45722</v>
       </c>
       <c r="C141" t="s">
@@ -3344,7 +3344,7 @@
       <c r="A142" s="3">
         <v>141</v>
       </c>
-      <c r="B142" s="7">
+      <c r="B142" s="6">
         <v>45722</v>
       </c>
       <c r="C142" t="s">
@@ -3364,7 +3364,7 @@
       <c r="A143" s="3">
         <v>142</v>
       </c>
-      <c r="B143" s="7">
+      <c r="B143" s="6">
         <v>45723</v>
       </c>
       <c r="C143" t="s">
@@ -3384,7 +3384,7 @@
       <c r="A144" s="3">
         <v>143</v>
       </c>
-      <c r="B144" s="7">
+      <c r="B144" s="6">
         <v>45723</v>
       </c>
       <c r="C144" t="s">
@@ -3404,7 +3404,7 @@
       <c r="A145" s="3">
         <v>144</v>
       </c>
-      <c r="B145" s="7">
+      <c r="B145" s="6">
         <v>45724</v>
       </c>
       <c r="C145" t="s">
@@ -3424,7 +3424,7 @@
       <c r="A146" s="3">
         <v>145</v>
       </c>
-      <c r="B146" s="7">
+      <c r="B146" s="6">
         <v>45726</v>
       </c>
       <c r="C146" t="s">
@@ -3444,7 +3444,7 @@
       <c r="A147" s="3">
         <v>146</v>
       </c>
-      <c r="B147" s="7">
+      <c r="B147" s="6">
         <v>45726</v>
       </c>
       <c r="C147" t="s">
@@ -3464,7 +3464,7 @@
       <c r="A148" s="3">
         <v>147</v>
       </c>
-      <c r="B148" s="7">
+      <c r="B148" s="6">
         <v>45726</v>
       </c>
       <c r="C148" t="s">
@@ -3484,7 +3484,7 @@
       <c r="A149" s="3">
         <v>148</v>
       </c>
-      <c r="B149" s="7">
+      <c r="B149" s="6">
         <v>45726</v>
       </c>
       <c r="C149" t="s">
@@ -3504,7 +3504,7 @@
       <c r="A150" s="3">
         <v>149</v>
       </c>
-      <c r="B150" s="7">
+      <c r="B150" s="6">
         <v>45727</v>
       </c>
       <c r="C150" t="s">
@@ -3524,7 +3524,7 @@
       <c r="A151" s="3">
         <v>150</v>
       </c>
-      <c r="B151" s="7">
+      <c r="B151" s="6">
         <v>45727</v>
       </c>
       <c r="C151" t="s">
@@ -3544,7 +3544,7 @@
       <c r="A152" s="3">
         <v>151</v>
       </c>
-      <c r="B152" s="7">
+      <c r="B152" s="6">
         <v>45728</v>
       </c>
       <c r="C152" t="s">
@@ -3564,7 +3564,7 @@
       <c r="A153" s="3">
         <v>152</v>
       </c>
-      <c r="B153" s="7">
+      <c r="B153" s="6">
         <v>45728</v>
       </c>
       <c r="C153" t="s">
@@ -3584,7 +3584,7 @@
       <c r="A154" s="3">
         <v>153</v>
       </c>
-      <c r="B154" s="7">
+      <c r="B154" s="6">
         <v>45728</v>
       </c>
       <c r="C154" t="s">
@@ -3604,7 +3604,7 @@
       <c r="A155" s="3">
         <v>154</v>
       </c>
-      <c r="B155" s="7">
+      <c r="B155" s="6">
         <v>45729</v>
       </c>
       <c r="C155" t="s">
@@ -3624,7 +3624,7 @@
       <c r="A156" s="3">
         <v>155</v>
       </c>
-      <c r="B156" s="7">
+      <c r="B156" s="6">
         <v>45729</v>
       </c>
       <c r="C156" t="s">
@@ -3644,7 +3644,7 @@
       <c r="A157" s="3">
         <v>156</v>
       </c>
-      <c r="B157" s="7">
+      <c r="B157" s="6">
         <v>45730</v>
       </c>
       <c r="C157" t="s">
@@ -3664,7 +3664,7 @@
       <c r="A158" s="3">
         <v>157</v>
       </c>
-      <c r="B158" s="7">
+      <c r="B158" s="6">
         <v>45732</v>
       </c>
       <c r="C158" t="s">
@@ -3684,7 +3684,7 @@
       <c r="A159" s="3">
         <v>158</v>
       </c>
-      <c r="B159" s="7">
+      <c r="B159" s="6">
         <v>45732</v>
       </c>
       <c r="C159" t="s">
@@ -3704,7 +3704,7 @@
       <c r="A160" s="3">
         <v>159</v>
       </c>
-      <c r="B160" s="7">
+      <c r="B160" s="6">
         <v>45732</v>
       </c>
       <c r="C160" t="s">
@@ -3724,7 +3724,7 @@
       <c r="A161" s="3">
         <v>160</v>
       </c>
-      <c r="B161" s="7">
+      <c r="B161" s="6">
         <v>45733</v>
       </c>
       <c r="C161" t="s">
@@ -3744,7 +3744,7 @@
       <c r="A162" s="3">
         <v>161</v>
       </c>
-      <c r="B162" s="7">
+      <c r="B162" s="6">
         <v>45733</v>
       </c>
       <c r="C162" t="s">
@@ -3764,7 +3764,7 @@
       <c r="A163" s="3">
         <v>162</v>
       </c>
-      <c r="B163" s="7">
+      <c r="B163" s="6">
         <v>45734</v>
       </c>
       <c r="C163" t="s">
@@ -3784,7 +3784,7 @@
       <c r="A164" s="3">
         <v>163</v>
       </c>
-      <c r="B164" s="7">
+      <c r="B164" s="6">
         <v>45734</v>
       </c>
       <c r="C164" t="s">
@@ -3804,7 +3804,7 @@
       <c r="A165" s="3">
         <v>164</v>
       </c>
-      <c r="B165" s="7">
+      <c r="B165" s="6">
         <v>45734</v>
       </c>
       <c r="C165" t="s">
@@ -3824,7 +3824,7 @@
       <c r="A166" s="3">
         <v>165</v>
       </c>
-      <c r="B166" s="7">
+      <c r="B166" s="6">
         <v>45734</v>
       </c>
       <c r="C166" t="s">
@@ -3844,7 +3844,7 @@
       <c r="A167" s="3">
         <v>166</v>
       </c>
-      <c r="B167" s="7">
+      <c r="B167" s="6">
         <v>45734</v>
       </c>
       <c r="C167" t="s">
@@ -3864,7 +3864,7 @@
       <c r="A168" s="3">
         <v>167</v>
       </c>
-      <c r="B168" s="7">
+      <c r="B168" s="6">
         <v>45734</v>
       </c>
       <c r="C168" t="s">
@@ -3884,7 +3884,7 @@
       <c r="A169" s="3">
         <v>168</v>
       </c>
-      <c r="B169" s="7">
+      <c r="B169" s="6">
         <v>45735</v>
       </c>
       <c r="C169" t="s">
@@ -3904,7 +3904,7 @@
       <c r="A170" s="3">
         <v>169</v>
       </c>
-      <c r="B170" s="7">
+      <c r="B170" s="6">
         <v>45735</v>
       </c>
       <c r="C170" t="s">
@@ -3924,7 +3924,7 @@
       <c r="A171" s="3">
         <v>170</v>
       </c>
-      <c r="B171" s="7">
+      <c r="B171" s="6">
         <v>45736</v>
       </c>
       <c r="C171" t="s">
@@ -3944,7 +3944,7 @@
       <c r="A172" s="3">
         <v>171</v>
       </c>
-      <c r="B172" s="7">
+      <c r="B172" s="6">
         <v>45736</v>
       </c>
       <c r="C172" t="s">
@@ -3964,7 +3964,7 @@
       <c r="A173" s="3">
         <v>172</v>
       </c>
-      <c r="B173" s="7">
+      <c r="B173" s="6">
         <v>45737</v>
       </c>
       <c r="C173" t="s">
@@ -3984,7 +3984,7 @@
       <c r="A174" s="3">
         <v>173</v>
       </c>
-      <c r="B174" s="7">
+      <c r="B174" s="6">
         <v>45737</v>
       </c>
       <c r="C174" t="s">
@@ -4004,7 +4004,7 @@
       <c r="A175" s="3">
         <v>174</v>
       </c>
-      <c r="B175" s="7">
+      <c r="B175" s="6">
         <v>45737</v>
       </c>
       <c r="C175" t="s">
@@ -4024,7 +4024,7 @@
       <c r="A176" s="3">
         <v>175</v>
       </c>
-      <c r="B176" s="7">
+      <c r="B176" s="6">
         <v>45737</v>
       </c>
       <c r="C176" t="s">
@@ -4044,7 +4044,7 @@
       <c r="A177" s="3">
         <v>176</v>
       </c>
-      <c r="B177" s="7">
+      <c r="B177" s="6">
         <v>45738</v>
       </c>
       <c r="C177" t="s">
@@ -4064,7 +4064,7 @@
       <c r="A178" s="3">
         <v>177</v>
       </c>
-      <c r="B178" s="7">
+      <c r="B178" s="6">
         <v>45738</v>
       </c>
       <c r="C178" t="s">
@@ -4084,7 +4084,7 @@
       <c r="A179" s="3">
         <v>178</v>
       </c>
-      <c r="B179" s="7">
+      <c r="B179" s="6">
         <v>45740</v>
       </c>
       <c r="C179" t="s">
@@ -4104,7 +4104,7 @@
       <c r="A180" s="3">
         <v>179</v>
       </c>
-      <c r="B180" s="7">
+      <c r="B180" s="6">
         <v>45740</v>
       </c>
       <c r="C180" t="s">
@@ -4124,7 +4124,7 @@
       <c r="A181" s="3">
         <v>180</v>
       </c>
-      <c r="B181" s="7">
+      <c r="B181" s="6">
         <v>45740</v>
       </c>
       <c r="C181" t="s">
@@ -4144,7 +4144,7 @@
       <c r="A182" s="3">
         <v>181</v>
       </c>
-      <c r="B182" s="7">
+      <c r="B182" s="6">
         <v>45740</v>
       </c>
       <c r="C182" t="s">
@@ -4164,7 +4164,7 @@
       <c r="A183" s="3">
         <v>182</v>
       </c>
-      <c r="B183" s="7">
+      <c r="B183" s="6">
         <v>45740</v>
       </c>
       <c r="C183" t="s">
@@ -4184,7 +4184,7 @@
       <c r="A184" s="3">
         <v>183</v>
       </c>
-      <c r="B184" s="7">
+      <c r="B184" s="6">
         <v>45741</v>
       </c>
       <c r="C184" t="s">
@@ -4204,7 +4204,7 @@
       <c r="A185" s="3">
         <v>184</v>
       </c>
-      <c r="B185" s="7">
+      <c r="B185" s="6">
         <v>45741</v>
       </c>
       <c r="C185" t="s">
@@ -4224,7 +4224,7 @@
       <c r="A186" s="3">
         <v>185</v>
       </c>
-      <c r="B186" s="7">
+      <c r="B186" s="6">
         <v>45741</v>
       </c>
       <c r="C186" t="s">
@@ -4244,7 +4244,7 @@
       <c r="A187" s="3">
         <v>186</v>
       </c>
-      <c r="B187" s="7">
+      <c r="B187" s="6">
         <v>45742</v>
       </c>
       <c r="C187" t="s">
@@ -4264,7 +4264,7 @@
       <c r="A188" s="3">
         <v>187</v>
       </c>
-      <c r="B188" s="7">
+      <c r="B188" s="6">
         <v>45743</v>
       </c>
       <c r="C188" t="s">
@@ -4284,7 +4284,7 @@
       <c r="A189" s="3">
         <v>188</v>
       </c>
-      <c r="B189" s="7">
+      <c r="B189" s="6">
         <v>45743</v>
       </c>
       <c r="C189" t="s">
@@ -4304,7 +4304,7 @@
       <c r="A190" s="3">
         <v>189</v>
       </c>
-      <c r="B190" s="7">
+      <c r="B190" s="6">
         <v>45743</v>
       </c>
       <c r="C190" t="s">
@@ -4324,7 +4324,7 @@
       <c r="A191" s="3">
         <v>190</v>
       </c>
-      <c r="B191" s="7">
+      <c r="B191" s="6">
         <v>45744</v>
       </c>
       <c r="C191" t="s">
@@ -4344,7 +4344,7 @@
       <c r="A192" s="3">
         <v>191</v>
       </c>
-      <c r="B192" s="7">
+      <c r="B192" s="6">
         <v>45744</v>
       </c>
       <c r="C192" t="s">
@@ -4364,7 +4364,7 @@
       <c r="A193" s="3">
         <v>192</v>
       </c>
-      <c r="B193" s="7">
+      <c r="B193" s="6">
         <v>45744</v>
       </c>
       <c r="C193" t="s">
@@ -4384,7 +4384,7 @@
       <c r="A194" s="3">
         <v>193</v>
       </c>
-      <c r="B194" s="7">
+      <c r="B194" s="6">
         <v>45745</v>
       </c>
       <c r="C194" t="s">
@@ -4404,7 +4404,7 @@
       <c r="A195" s="3">
         <v>194</v>
       </c>
-      <c r="B195" s="7">
+      <c r="B195" s="6">
         <v>45746</v>
       </c>
       <c r="C195" t="s">
@@ -4424,7 +4424,7 @@
       <c r="A196" s="3">
         <v>195</v>
       </c>
-      <c r="B196" s="7">
+      <c r="B196" s="6">
         <v>45746</v>
       </c>
       <c r="C196" t="s">
@@ -4444,7 +4444,7 @@
       <c r="A197" s="3">
         <v>196</v>
       </c>
-      <c r="B197" s="7">
+      <c r="B197" s="6">
         <v>45747</v>
       </c>
       <c r="C197" t="s">
@@ -4464,7 +4464,7 @@
       <c r="A198" s="3">
         <v>197</v>
       </c>
-      <c r="B198" s="7">
+      <c r="B198" s="6">
         <v>45747</v>
       </c>
       <c r="C198" t="s">
@@ -4484,7 +4484,7 @@
       <c r="A199" s="3">
         <v>198</v>
       </c>
-      <c r="B199" s="7">
+      <c r="B199" s="6">
         <v>45747</v>
       </c>
       <c r="C199" t="s">
@@ -4504,7 +4504,7 @@
       <c r="A200" s="3">
         <v>199</v>
       </c>
-      <c r="B200" s="7">
+      <c r="B200" s="6">
         <v>45747</v>
       </c>
       <c r="C200" t="s">
@@ -4524,7 +4524,7 @@
       <c r="A201" s="3">
         <v>200</v>
       </c>
-      <c r="B201" s="7">
+      <c r="B201" s="6">
         <v>45747</v>
       </c>
       <c r="C201" t="s">
@@ -4544,7 +4544,7 @@
       <c r="A202" s="3">
         <v>201</v>
       </c>
-      <c r="B202" s="7">
+      <c r="B202" s="6">
         <v>45747</v>
       </c>
       <c r="C202" t="s">
@@ -4564,7 +4564,7 @@
       <c r="A203" s="3">
         <v>202</v>
       </c>
-      <c r="B203" s="7">
+      <c r="B203" s="6">
         <v>45747</v>
       </c>
       <c r="C203" t="s">
@@ -4584,7 +4584,7 @@
       <c r="A204" s="3">
         <v>203</v>
       </c>
-      <c r="B204" s="7">
+      <c r="B204" s="6">
         <v>45747</v>
       </c>
       <c r="C204" t="s">
@@ -4604,7 +4604,7 @@
       <c r="A205" s="3">
         <v>204</v>
       </c>
-      <c r="B205" s="7">
+      <c r="B205" s="6">
         <v>45748</v>
       </c>
       <c r="C205" t="s">
@@ -4624,7 +4624,7 @@
       <c r="A206" s="3">
         <v>205</v>
       </c>
-      <c r="B206" s="7">
+      <c r="B206" s="6">
         <v>45748</v>
       </c>
       <c r="C206" t="s">
@@ -4644,7 +4644,7 @@
       <c r="A207" s="3">
         <v>206</v>
       </c>
-      <c r="B207" s="7">
+      <c r="B207" s="6">
         <v>45748</v>
       </c>
       <c r="C207" t="s">
@@ -4664,7 +4664,7 @@
       <c r="A208" s="3">
         <v>207</v>
       </c>
-      <c r="B208" s="7">
+      <c r="B208" s="6">
         <v>45748</v>
       </c>
       <c r="C208" t="s">
@@ -4684,7 +4684,7 @@
       <c r="A209" s="3">
         <v>208</v>
       </c>
-      <c r="B209" s="7">
+      <c r="B209" s="6">
         <v>45749</v>
       </c>
       <c r="C209" t="s">
@@ -4704,7 +4704,7 @@
       <c r="A210" s="3">
         <v>209</v>
       </c>
-      <c r="B210" s="7">
+      <c r="B210" s="6">
         <v>45750</v>
       </c>
       <c r="C210" t="s">
@@ -4724,7 +4724,7 @@
       <c r="A211" s="3">
         <v>210</v>
       </c>
-      <c r="B211" s="7">
+      <c r="B211" s="6">
         <v>45750</v>
       </c>
       <c r="C211" t="s">
@@ -4744,7 +4744,7 @@
       <c r="A212" s="3">
         <v>211</v>
       </c>
-      <c r="B212" s="7">
+      <c r="B212" s="6">
         <v>45751</v>
       </c>
       <c r="C212" t="s">
@@ -4764,7 +4764,7 @@
       <c r="A213" s="3">
         <v>212</v>
       </c>
-      <c r="B213" s="7">
+      <c r="B213" s="6">
         <v>45751</v>
       </c>
       <c r="C213" t="s">
@@ -4784,7 +4784,7 @@
       <c r="A214" s="3">
         <v>213</v>
       </c>
-      <c r="B214" s="7">
+      <c r="B214" s="6">
         <v>45752</v>
       </c>
       <c r="C214" t="s">
@@ -4804,7 +4804,7 @@
       <c r="A215" s="3">
         <v>214</v>
       </c>
-      <c r="B215" s="7">
+      <c r="B215" s="6">
         <v>45753</v>
       </c>
       <c r="C215" t="s">
@@ -4824,7 +4824,7 @@
       <c r="A216" s="3">
         <v>215</v>
       </c>
-      <c r="B216" s="7">
+      <c r="B216" s="6">
         <v>45754</v>
       </c>
       <c r="C216" t="s">
@@ -4844,7 +4844,7 @@
       <c r="A217" s="3">
         <v>216</v>
       </c>
-      <c r="B217" s="7">
+      <c r="B217" s="6">
         <v>45754</v>
       </c>
       <c r="C217" t="s">
@@ -4864,7 +4864,7 @@
       <c r="A218" s="3">
         <v>217</v>
       </c>
-      <c r="B218" s="7">
+      <c r="B218" s="6">
         <v>45755</v>
       </c>
       <c r="C218" t="s">
@@ -4884,7 +4884,7 @@
       <c r="A219" s="3">
         <v>218</v>
       </c>
-      <c r="B219" s="7">
+      <c r="B219" s="6">
         <v>45755</v>
       </c>
       <c r="C219" t="s">
@@ -4904,7 +4904,7 @@
       <c r="A220" s="3">
         <v>219</v>
       </c>
-      <c r="B220" s="7">
+      <c r="B220" s="6">
         <v>45756</v>
       </c>
       <c r="C220" t="s">
@@ -4924,7 +4924,7 @@
       <c r="A221" s="3">
         <v>220</v>
       </c>
-      <c r="B221" s="7">
+      <c r="B221" s="6">
         <v>45756</v>
       </c>
       <c r="C221" t="s">
@@ -4944,7 +4944,7 @@
       <c r="A222" s="3">
         <v>221</v>
       </c>
-      <c r="B222" s="7">
+      <c r="B222" s="6">
         <v>45756</v>
       </c>
       <c r="C222" t="s">
@@ -4964,7 +4964,7 @@
       <c r="A223" s="3">
         <v>222</v>
       </c>
-      <c r="B223" s="7">
+      <c r="B223" s="6">
         <v>45758</v>
       </c>
       <c r="C223" t="s">
@@ -4984,7 +4984,7 @@
       <c r="A224" s="3">
         <v>223</v>
       </c>
-      <c r="B224" s="7">
+      <c r="B224" s="6">
         <v>45758</v>
       </c>
       <c r="C224" t="s">
@@ -5004,7 +5004,7 @@
       <c r="A225" s="3">
         <v>224</v>
       </c>
-      <c r="B225" s="7">
+      <c r="B225" s="6">
         <v>45758</v>
       </c>
       <c r="C225" t="s">
@@ -5024,7 +5024,7 @@
       <c r="A226" s="3">
         <v>225</v>
       </c>
-      <c r="B226" s="7">
+      <c r="B226" s="6">
         <v>45759</v>
       </c>
       <c r="C226" t="s">
@@ -5044,7 +5044,7 @@
       <c r="A227" s="3">
         <v>226</v>
       </c>
-      <c r="B227" s="7">
+      <c r="B227" s="6">
         <v>45759</v>
       </c>
       <c r="C227" t="s">
@@ -5064,7 +5064,7 @@
       <c r="A228" s="3">
         <v>227</v>
       </c>
-      <c r="B228" s="7">
+      <c r="B228" s="6">
         <v>45760</v>
       </c>
       <c r="C228" t="s">
@@ -5084,7 +5084,7 @@
       <c r="A229" s="3">
         <v>228</v>
       </c>
-      <c r="B229" s="7">
+      <c r="B229" s="6">
         <v>45760</v>
       </c>
       <c r="C229" t="s">
@@ -5104,7 +5104,7 @@
       <c r="A230" s="3">
         <v>229</v>
       </c>
-      <c r="B230" s="7">
+      <c r="B230" s="6">
         <v>45760</v>
       </c>
       <c r="C230" t="s">
@@ -5124,7 +5124,7 @@
       <c r="A231" s="3">
         <v>230</v>
       </c>
-      <c r="B231" s="7">
+      <c r="B231" s="6">
         <v>45761</v>
       </c>
       <c r="C231" t="s">
@@ -5144,7 +5144,7 @@
       <c r="A232" s="3">
         <v>231</v>
       </c>
-      <c r="B232" s="7">
+      <c r="B232" s="6">
         <v>45761</v>
       </c>
       <c r="C232" t="s">
@@ -5164,7 +5164,7 @@
       <c r="A233" s="3">
         <v>232</v>
       </c>
-      <c r="B233" s="7">
+      <c r="B233" s="6">
         <v>45762</v>
       </c>
       <c r="C233" t="s">
@@ -5184,7 +5184,7 @@
       <c r="A234" s="3">
         <v>233</v>
       </c>
-      <c r="B234" s="7">
+      <c r="B234" s="6">
         <v>45763</v>
       </c>
       <c r="C234" t="s">
@@ -5204,7 +5204,7 @@
       <c r="A235" s="3">
         <v>234</v>
       </c>
-      <c r="B235" s="7">
+      <c r="B235" s="6">
         <v>45763</v>
       </c>
       <c r="C235" t="s">
@@ -5224,7 +5224,7 @@
       <c r="A236" s="3">
         <v>235</v>
       </c>
-      <c r="B236" s="7">
+      <c r="B236" s="6">
         <v>45763</v>
       </c>
       <c r="C236" t="s">
@@ -5244,7 +5244,7 @@
       <c r="A237" s="3">
         <v>236</v>
       </c>
-      <c r="B237" s="7">
+      <c r="B237" s="6">
         <v>45764</v>
       </c>
       <c r="C237" t="s">
@@ -5264,7 +5264,7 @@
       <c r="A238" s="3">
         <v>237</v>
       </c>
-      <c r="B238" s="7">
+      <c r="B238" s="6">
         <v>45764</v>
       </c>
       <c r="C238" t="s">
@@ -5284,7 +5284,7 @@
       <c r="A239" s="3">
         <v>238</v>
       </c>
-      <c r="B239" s="7">
+      <c r="B239" s="6">
         <v>45764</v>
       </c>
       <c r="C239" t="s">
@@ -5304,7 +5304,7 @@
       <c r="A240" s="3">
         <v>239</v>
       </c>
-      <c r="B240" s="7">
+      <c r="B240" s="6">
         <v>45765</v>
       </c>
       <c r="C240" t="s">
@@ -5324,7 +5324,7 @@
       <c r="A241" s="3">
         <v>240</v>
       </c>
-      <c r="B241" s="7">
+      <c r="B241" s="6">
         <v>45766</v>
       </c>
       <c r="C241" t="s">
@@ -5344,7 +5344,7 @@
       <c r="A242" s="3">
         <v>241</v>
       </c>
-      <c r="B242" s="7">
+      <c r="B242" s="6">
         <v>45767</v>
       </c>
       <c r="C242" t="s">
@@ -5364,7 +5364,7 @@
       <c r="A243" s="3">
         <v>242</v>
       </c>
-      <c r="B243" s="7">
+      <c r="B243" s="6">
         <v>45768</v>
       </c>
       <c r="C243" t="s">
@@ -5384,7 +5384,7 @@
       <c r="A244" s="3">
         <v>243</v>
       </c>
-      <c r="B244" s="7">
+      <c r="B244" s="6">
         <v>45768</v>
       </c>
       <c r="C244" t="s">
@@ -5404,7 +5404,7 @@
       <c r="A245" s="3">
         <v>244</v>
       </c>
-      <c r="B245" s="7">
+      <c r="B245" s="6">
         <v>45768</v>
       </c>
       <c r="C245" t="s">
@@ -5424,7 +5424,7 @@
       <c r="A246" s="3">
         <v>245</v>
       </c>
-      <c r="B246" s="7">
+      <c r="B246" s="6">
         <v>45769</v>
       </c>
       <c r="C246" t="s">
@@ -5444,7 +5444,7 @@
       <c r="A247" s="3">
         <v>246</v>
       </c>
-      <c r="B247" s="7">
+      <c r="B247" s="6">
         <v>45769</v>
       </c>
       <c r="C247" t="s">
@@ -5464,7 +5464,7 @@
       <c r="A248" s="3">
         <v>247</v>
       </c>
-      <c r="B248" s="7">
+      <c r="B248" s="6">
         <v>45770</v>
       </c>
       <c r="C248" t="s">
@@ -5484,7 +5484,7 @@
       <c r="A249" s="3">
         <v>248</v>
       </c>
-      <c r="B249" s="7">
+      <c r="B249" s="6">
         <v>45770</v>
       </c>
       <c r="C249" t="s">
@@ -5504,7 +5504,7 @@
       <c r="A250" s="3">
         <v>249</v>
       </c>
-      <c r="B250" s="7">
+      <c r="B250" s="6">
         <v>45771</v>
       </c>
       <c r="C250" t="s">
@@ -5524,7 +5524,7 @@
       <c r="A251" s="3">
         <v>250</v>
       </c>
-      <c r="B251" s="7">
+      <c r="B251" s="6">
         <v>45771</v>
       </c>
       <c r="C251" t="s">
@@ -5544,7 +5544,7 @@
       <c r="A252" s="3">
         <v>251</v>
       </c>
-      <c r="B252" s="7">
+      <c r="B252" s="6">
         <v>45771</v>
       </c>
       <c r="C252" t="s">
@@ -5564,7 +5564,7 @@
       <c r="A253" s="3">
         <v>252</v>
       </c>
-      <c r="B253" s="7">
+      <c r="B253" s="6">
         <v>45773</v>
       </c>
       <c r="C253" t="s">
@@ -5584,7 +5584,7 @@
       <c r="A254" s="3">
         <v>253</v>
       </c>
-      <c r="B254" s="7">
+      <c r="B254" s="6">
         <v>45773</v>
       </c>
       <c r="C254" t="s">
@@ -5604,7 +5604,7 @@
       <c r="A255" s="3">
         <v>254</v>
       </c>
-      <c r="B255" s="7">
+      <c r="B255" s="6">
         <v>45775</v>
       </c>
       <c r="C255" t="s">
@@ -5624,7 +5624,7 @@
       <c r="A256" s="3">
         <v>255</v>
       </c>
-      <c r="B256" s="7">
+      <c r="B256" s="6">
         <v>45776</v>
       </c>
       <c r="C256" t="s">
@@ -5644,7 +5644,7 @@
       <c r="A257" s="3">
         <v>256</v>
       </c>
-      <c r="B257" s="7">
+      <c r="B257" s="6">
         <v>45776</v>
       </c>
       <c r="C257" t="s">
@@ -5664,7 +5664,7 @@
       <c r="A258" s="3">
         <v>257</v>
       </c>
-      <c r="B258" s="7">
+      <c r="B258" s="6">
         <v>45776</v>
       </c>
       <c r="C258" t="s">
@@ -5684,7 +5684,7 @@
       <c r="A259" s="3">
         <v>258</v>
       </c>
-      <c r="B259" s="7">
+      <c r="B259" s="6">
         <v>45776</v>
       </c>
       <c r="C259" t="s">
@@ -5704,7 +5704,7 @@
       <c r="A260" s="3">
         <v>259</v>
       </c>
-      <c r="B260" s="7">
+      <c r="B260" s="6">
         <v>45776</v>
       </c>
       <c r="C260" t="s">
@@ -5724,7 +5724,7 @@
       <c r="A261" s="3">
         <v>260</v>
       </c>
-      <c r="B261" s="7">
+      <c r="B261" s="6">
         <v>45777</v>
       </c>
       <c r="C261" t="s">
@@ -5744,7 +5744,7 @@
       <c r="A262" s="3">
         <v>261</v>
       </c>
-      <c r="B262" s="7">
+      <c r="B262" s="6">
         <v>45777</v>
       </c>
       <c r="C262" t="s">
@@ -5764,7 +5764,7 @@
       <c r="A263" s="3">
         <v>262</v>
       </c>
-      <c r="B263" s="7">
+      <c r="B263" s="6">
         <v>45777</v>
       </c>
       <c r="C263" t="s">
@@ -5784,7 +5784,7 @@
       <c r="A264" s="3">
         <v>263</v>
       </c>
-      <c r="B264" s="7">
+      <c r="B264" s="6">
         <v>45777</v>
       </c>
       <c r="C264" t="s">
@@ -5804,7 +5804,7 @@
       <c r="A265" s="3">
         <v>264</v>
       </c>
-      <c r="B265" s="7">
+      <c r="B265" s="6">
         <v>45777</v>
       </c>
       <c r="C265" t="s">
@@ -5824,7 +5824,7 @@
       <c r="A266" s="3">
         <v>265</v>
       </c>
-      <c r="B266" s="7">
+      <c r="B266" s="6">
         <v>45777</v>
       </c>
       <c r="C266" t="s">
@@ -5844,7 +5844,7 @@
       <c r="A267" s="3">
         <v>266</v>
       </c>
-      <c r="B267" s="7">
+      <c r="B267" s="6">
         <v>45777</v>
       </c>
       <c r="C267" t="s">
@@ -5864,7 +5864,7 @@
       <c r="A268" s="3">
         <v>267</v>
       </c>
-      <c r="B268" s="7">
+      <c r="B268" s="6">
         <v>45777</v>
       </c>
       <c r="C268" t="s">
